--- a/public/公司风险研判签到表模板.xlsx
+++ b/public/公司风险研判签到表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>乙烯分公司                        会议时间： 2023 年    月    日</t>
   </si>
@@ -30,58 +30,61 @@
     <t>公司领导</t>
   </si>
   <si>
+    <t>聚丙烯车间</t>
+  </si>
+  <si>
+    <t>苯乙烯车间</t>
+  </si>
+  <si>
+    <t>加氢抽提联合车间</t>
+  </si>
+  <si>
+    <t>聚苯乙烯车间</t>
+  </si>
+  <si>
+    <t>水汽车间</t>
+  </si>
+  <si>
+    <t>储运车间</t>
+  </si>
+  <si>
+    <t>生产管理处</t>
+  </si>
+  <si>
+    <t>仪表车间</t>
+  </si>
+  <si>
+    <t>设备管理处</t>
+  </si>
+  <si>
+    <t>电气车间</t>
+  </si>
+  <si>
+    <t>安全环保处</t>
+  </si>
+  <si>
+    <t>成品车间</t>
+  </si>
+  <si>
+    <t>乙烯车间</t>
+  </si>
+  <si>
+    <t>聚乙烯车间</t>
+  </si>
+  <si>
+    <t>乙烯分公司                                   会议时间： 2023 年    月    日</t>
+  </si>
+  <si>
+    <t>工程管理处</t>
+  </si>
+  <si>
+    <t>技术处</t>
+  </si>
+  <si>
     <t>聚丙烯一车间</t>
   </si>
   <si>
     <t>聚丙烯二车间</t>
-  </si>
-  <si>
-    <t>苯乙烯车间</t>
-  </si>
-  <si>
-    <t>加氢抽提联合车间</t>
-  </si>
-  <si>
-    <t>聚苯乙烯车间</t>
-  </si>
-  <si>
-    <t>生产管理处</t>
-  </si>
-  <si>
-    <t>水汽车间</t>
-  </si>
-  <si>
-    <t>设备管理处</t>
-  </si>
-  <si>
-    <t>储运车间</t>
-  </si>
-  <si>
-    <t>安全环保处</t>
-  </si>
-  <si>
-    <t>仪表车间</t>
-  </si>
-  <si>
-    <t>乙烯车间</t>
-  </si>
-  <si>
-    <t>电气车间</t>
-  </si>
-  <si>
-    <t>聚乙烯车间</t>
-  </si>
-  <si>
-    <t>成品车间</t>
-  </si>
-  <si>
-    <t>乙烯分公司                                   会议时间： 2023 年    月    日</t>
-  </si>
-  <si>
-    <t>工程管理处</t>
-  </si>
-  <si>
-    <t>技术处</t>
   </si>
   <si>
     <t>乙烯分公司                             会议时间： 2023 年    月    日</t>
@@ -93,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -129,34 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -173,6 +148,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -182,41 +196,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,7 +249,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,49 +285,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,121 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,21 +545,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -585,6 +573,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,152 +646,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,60 +829,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1150,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1173,7 +1173,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="55" customHeight="1" spans="1:6">
+    <row r="2" ht="39" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" ht="61" customHeight="1" spans="1:6">
+    <row r="3" ht="57.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="D3" s="2"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" ht="61" customHeight="1" spans="1:6">
+    <row r="4" ht="57.4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1210,29 +1210,29 @@
       <c r="D4" s="2"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" ht="61" customHeight="1" spans="1:6">
+    <row r="5" ht="57.4" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="7"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" ht="61" customHeight="1" spans="1:6">
+    <row r="6" ht="57.4" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" ht="61" customHeight="1" spans="1:6">
+    <row r="7" ht="57.4" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1240,63 +1240,70 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="7"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" ht="61" customHeight="1" spans="1:6">
+    <row r="8" ht="57.4" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="57.4" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" ht="61" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="7"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" ht="57.4" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="61" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" ht="57.4" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="61" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="7"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" ht="57.4" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" ht="61" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" ht="57.4" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="F12" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1326,7 +1333,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1354,61 +1361,61 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1418,23 +1425,23 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1471,14 +1478,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1537,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -1546,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -1555,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -1564,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1573,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -1582,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4"/>
     </row>
@@ -1600,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -1609,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1618,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -1627,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -1636,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -1645,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -1654,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -1663,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -1672,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -1681,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="4"/>
     </row>

--- a/public/公司风险研判签到表模板.xlsx
+++ b/public/公司风险研判签到表模板.xlsx
@@ -8,15 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>乙烯分公司                        会议时间： 2023 年    月    日</t>
   </si>
@@ -24,7 +35,7 @@
     <t>参会单位</t>
   </si>
   <si>
-    <t>签到</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>公司领导</t>
@@ -70,33 +81,12 @@
   </si>
   <si>
     <t>聚乙烯车间</t>
-  </si>
-  <si>
-    <t>乙烯分公司                                   会议时间： 2023 年    月    日</t>
-  </si>
-  <si>
-    <t>工程管理处</t>
-  </si>
-  <si>
-    <t>技术处</t>
-  </si>
-  <si>
-    <t>聚丙烯一车间</t>
-  </si>
-  <si>
-    <t>聚丙烯二车间</t>
-  </si>
-  <si>
-    <t>乙烯分公司                             会议时间： 2023 年    月    日</t>
-  </si>
-  <si>
-    <t>序号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -112,20 +102,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -482,34 +472,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -541,6 +503,34 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -791,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,35 +791,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1153,7 +1137,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1166,144 +1150,144 @@
   </cols>
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" ht="57.4" customHeight="1" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1312,394 +1296,7 @@
   <pageMargins left="0.665277777777778" right="0.751388888888889" top="1" bottom="0.574305555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;12附件1&amp;C&amp;16&amp;B现场作业风险研判参会人员签到表</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="4" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="127" customHeight="1" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;12附件1&amp;C&amp;16&amp;B现场作业风险研判参会人员签到表</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="32.6083333333333" customWidth="1"/>
-    <col min="3" max="3" width="42.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:3">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:3">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:3">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:3">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:3">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:3">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:3">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.906944444444444" bottom="0.636805555555556" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;12附件1&amp;C&amp;16&amp;B现场作业风险研判参会人员签到表</oddHeader>
+    <oddHeader>&amp;L&amp;12附件1&amp;C&amp;16&amp;B风险研判参会人员签到表</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/public/公司风险研判签到表模板.xlsx
+++ b/public/公司风险研判签到表模板.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
-    <t>乙烯分公司                        会议时间： 2023 年    月    日</t>
+    <t>乙烯分公司                        会议时间：      年    月    日</t>
   </si>
   <si>
     <t>参会单位</t>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
